--- a/rmtk/vulnerability/tests/common/damage_to_loss.xlsx
+++ b/rmtk/vulnerability/tests/common/damage_to_loss.xlsx
@@ -67,8 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -99,9 +100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -569,11 +571,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094055544"/>
-        <c:axId val="2102793432"/>
+        <c:axId val="2119917400"/>
+        <c:axId val="2119880488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094055544"/>
+        <c:axId val="2119917400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,12 +585,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102793432"/>
+        <c:crossAx val="2119880488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102793432"/>
+        <c:axId val="2119880488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,7 +601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094055544"/>
+        <c:crossAx val="2119917400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -981,7 +983,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A29" sqref="A29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1165,211 +1167,211 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <f>IF($B$7&gt;0,LOGNORMDIST(A$2,$B$6,$B$7),IF(A2&lt;$B$5,0,1))</f>
+        <f t="shared" ref="A17:J17" si="1">IF($B$7&gt;0,LOGNORMDIST(A$2,$B$6,$B$7),IF(A2&lt;$B$5,0,1))</f>
         <v>0</v>
       </c>
       <c r="B17">
-        <f>IF($B$7&gt;0,LOGNORMDIST(B$2,$B$6,$B$7),IF(B2&lt;$B$5,0,1))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C17">
-        <f>IF($B$7&gt;0,LOGNORMDIST(C$2,$B$6,$B$7),IF(C2&lt;$B$5,0,1))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D17">
-        <f>IF($B$7&gt;0,LOGNORMDIST(D$2,$B$6,$B$7),IF(D2&lt;$B$5,0,1))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E17">
-        <f>IF($B$7&gt;0,LOGNORMDIST(E$2,$B$6,$B$7),IF(E2&lt;$B$5,0,1))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F17">
-        <f>IF($B$7&gt;0,LOGNORMDIST(F$2,$B$6,$B$7),IF(F2&lt;$B$5,0,1))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G17">
-        <f>IF($B$7&gt;0,LOGNORMDIST(G$2,$B$6,$B$7),IF(G2&lt;$B$5,0,1))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H17">
-        <f>IF($B$7&gt;0,LOGNORMDIST(H$2,$B$6,$B$7),IF(H2&lt;$B$5,0,1))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I17">
-        <f>IF($B$7&gt;0,LOGNORMDIST(I$2,$B$6,$B$7),IF(I2&lt;$B$5,0,1))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J17">
-        <f>IF($B$7&gt;0,LOGNORMDIST(J$2,$B$6,$B$7),IF(J2&lt;$B$5,0,1))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
-        <f>LOGNORMDIST(A$2,$C$6,$C$7)</f>
+        <f t="shared" ref="A18:J18" si="2">LOGNORMDIST(A$2,$C$6,$C$7)</f>
         <v>4.744786890568637E-42</v>
       </c>
       <c r="B18" s="1">
-        <f>LOGNORMDIST(B$2,$C$6,$C$7)</f>
+        <f t="shared" si="2"/>
         <v>2.6902380454211725E-17</v>
       </c>
       <c r="C18" s="1">
-        <f>LOGNORMDIST(C$2,$C$6,$C$7)</f>
+        <f t="shared" si="2"/>
         <v>4.1512392590718621E-8</v>
       </c>
       <c r="D18" s="1">
-        <f>LOGNORMDIST(D$2,$C$6,$C$7)</f>
+        <f t="shared" si="2"/>
         <v>6.4233821724682882E-4</v>
       </c>
       <c r="E18" s="1">
-        <f>LOGNORMDIST(E$2,$C$6,$C$7)</f>
+        <f t="shared" si="2"/>
         <v>5.9538952466280555E-2</v>
       </c>
       <c r="F18" s="1">
-        <f>LOGNORMDIST(F$2,$C$6,$C$7)</f>
+        <f t="shared" si="2"/>
         <v>0.42005835977913974</v>
       </c>
       <c r="G18" s="1">
-        <f>LOGNORMDIST(G$2,$C$6,$C$7)</f>
+        <f t="shared" si="2"/>
         <v>0.82780023427765004</v>
       </c>
       <c r="H18" s="1">
-        <f>LOGNORMDIST(H$2,$C$6,$C$7)</f>
+        <f t="shared" si="2"/>
         <v>0.97376778849544254</v>
       </c>
       <c r="I18" s="1">
-        <f>LOGNORMDIST(I$2,$C$6,$C$7)</f>
+        <f t="shared" si="2"/>
         <v>0.99756790447077381</v>
       </c>
       <c r="J18" s="1">
-        <f>LOGNORMDIST(J$2,$C$6,$C$7)</f>
+        <f t="shared" si="2"/>
         <v>0.99984090894954569</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <f>LOGNORMDIST(A$2,$D$6,$D$7)</f>
+        <f t="shared" ref="A19:J19" si="3">LOGNORMDIST(A$2,$D$6,$D$7)</f>
         <v>9.5059748785164439E-23</v>
       </c>
       <c r="B19" s="1">
-        <f>LOGNORMDIST(B$2,$D$6,$D$7)</f>
+        <f t="shared" si="3"/>
         <v>1.2299805711132903E-11</v>
       </c>
       <c r="C19" s="1">
-        <f>LOGNORMDIST(C$2,$D$6,$D$7)</f>
+        <f t="shared" si="3"/>
         <v>5.3259185281370154E-7</v>
       </c>
       <c r="D19" s="1">
-        <f>LOGNORMDIST(D$2,$D$6,$D$7)</f>
+        <f t="shared" si="3"/>
         <v>1.5635686675711765E-4</v>
       </c>
       <c r="E19" s="1">
-        <f>LOGNORMDIST(E$2,$D$6,$D$7)</f>
+        <f t="shared" si="3"/>
         <v>4.4505709146515264E-3</v>
       </c>
       <c r="F19" s="1">
-        <f>LOGNORMDIST(F$2,$D$6,$D$7)</f>
+        <f t="shared" si="3"/>
         <v>3.5303539364504748E-2</v>
       </c>
       <c r="G19" s="1">
-        <f>LOGNORMDIST(G$2,$D$6,$D$7)</f>
+        <f t="shared" si="3"/>
         <v>0.13029781914065847</v>
       </c>
       <c r="H19" s="1">
-        <f>LOGNORMDIST(H$2,$D$6,$D$7)</f>
+        <f t="shared" si="3"/>
         <v>0.29690167463664163</v>
       </c>
       <c r="I19" s="1">
-        <f>LOGNORMDIST(I$2,$D$6,$D$7)</f>
+        <f t="shared" si="3"/>
         <v>0.49542871810417316</v>
       </c>
       <c r="J19" s="1">
-        <f>LOGNORMDIST(J$2,$D$6,$D$7)</f>
+        <f t="shared" si="3"/>
         <v>0.67557965934972442</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <f>LOGNORMDIST(A$2,$E$6,$E$7)</f>
+        <f t="shared" ref="A20:J20" si="4">LOGNORMDIST(A$2,$E$6,$E$7)</f>
         <v>1.1345466959148336E-18</v>
       </c>
       <c r="B20" s="1">
-        <f>LOGNORMDIST(B$2,$E$6,$E$7)</f>
+        <f t="shared" si="4"/>
         <v>1.8089037042493868E-10</v>
       </c>
       <c r="C20" s="1">
-        <f>LOGNORMDIST(C$2,$E$6,$E$7)</f>
+        <f t="shared" si="4"/>
         <v>7.0756847831001704E-7</v>
       </c>
       <c r="D20" s="1">
-        <f>LOGNORMDIST(D$2,$E$6,$E$7)</f>
+        <f t="shared" si="4"/>
         <v>7.3428992490975908E-5</v>
       </c>
       <c r="E20" s="1">
-        <f>LOGNORMDIST(E$2,$E$6,$E$7)</f>
+        <f t="shared" si="4"/>
         <v>1.3495487687728246E-3</v>
       </c>
       <c r="F20" s="1">
-        <f>LOGNORMDIST(F$2,$E$6,$E$7)</f>
+        <f t="shared" si="4"/>
         <v>9.39932841238709E-3</v>
       </c>
       <c r="G20" s="1">
-        <f>LOGNORMDIST(G$2,$E$6,$E$7)</f>
+        <f t="shared" si="4"/>
         <v>3.5974317723021149E-2</v>
       </c>
       <c r="H20" s="1">
-        <f>LOGNORMDIST(H$2,$E$6,$E$7)</f>
+        <f t="shared" si="4"/>
         <v>9.2923984225862399E-2</v>
       </c>
       <c r="I20" s="1">
-        <f>LOGNORMDIST(I$2,$E$6,$E$7)</f>
+        <f t="shared" si="4"/>
         <v>0.18334887215141191</v>
       </c>
       <c r="J20" s="1">
-        <f>LOGNORMDIST(J$2,$E$6,$E$7)</f>
+        <f t="shared" si="4"/>
         <v>0.29919481693416161</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
-        <f>LOGNORMDIST(A$2,$F$6,$F$7)</f>
+        <f t="shared" ref="A21:J21" si="5">LOGNORMDIST(A$2,$F$6,$F$7)</f>
         <v>1.1345466959148336E-18</v>
       </c>
       <c r="B21" s="1">
-        <f>LOGNORMDIST(B$2,$F$6,$F$7)</f>
+        <f t="shared" si="5"/>
         <v>1.8089037042493868E-10</v>
       </c>
       <c r="C21" s="1">
-        <f>LOGNORMDIST(C$2,$F$6,$F$7)</f>
+        <f t="shared" si="5"/>
         <v>7.0756847831001704E-7</v>
       </c>
       <c r="D21" s="1">
-        <f>LOGNORMDIST(D$2,$F$6,$F$7)</f>
+        <f t="shared" si="5"/>
         <v>7.3428992490975908E-5</v>
       </c>
       <c r="E21" s="1">
-        <f>LOGNORMDIST(E$2,$F$6,$F$7)</f>
+        <f t="shared" si="5"/>
         <v>1.3495487687728246E-3</v>
       </c>
       <c r="F21" s="1">
-        <f>LOGNORMDIST(F$2,$F$6,$F$7)</f>
+        <f t="shared" si="5"/>
         <v>9.39932841238709E-3</v>
       </c>
       <c r="G21" s="1">
-        <f>LOGNORMDIST(G$2,$F$6,$F$7)</f>
+        <f t="shared" si="5"/>
         <v>3.5974317723021149E-2</v>
       </c>
       <c r="H21" s="1">
-        <f>LOGNORMDIST(H$2,$F$6,$F$7)</f>
+        <f t="shared" si="5"/>
         <v>9.2923984225862399E-2</v>
       </c>
       <c r="I21" s="1">
-        <f>LOGNORMDIST(I$2,$F$6,$F$7)</f>
+        <f t="shared" si="5"/>
         <v>0.18334887215141191</v>
       </c>
       <c r="J21" s="1">
-        <f>LOGNORMDIST(J$2,$F$6,$F$7)</f>
+        <f t="shared" si="5"/>
         <v>0.29919481693416161</v>
       </c>
     </row>
@@ -1384,207 +1386,207 @@
         <v>-4.744786890568637E-42</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ref="B23:J23" si="1">B17-SUM(B18)</f>
+        <f t="shared" ref="B23:J23" si="6">B17-SUM(B18)</f>
         <v>-2.6902380454211725E-17</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-4.1512392590718621E-8</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.9993576617827532</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.9404610475337194</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.57994164022086026</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.17219976572234996</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.6232211504557457E-2</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.4320955292261859E-3</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.5909105045430749E-4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
-        <f t="shared" ref="A24:J24" si="2">A18-SUM(A19)</f>
+        <f t="shared" ref="A24:J24" si="7">A18-SUM(A19)</f>
         <v>-9.5059748785164439E-23</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-1.2299778808752449E-11</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-4.9107946022298288E-7</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.8598135048971117E-4</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.5088381551629026E-2</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.38475482041463499</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.69750241513699152</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.67686611385880091</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.50213918636660071</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.32426124959982128</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
-        <f t="shared" ref="A25:J25" si="3">A19-SUM(A20)</f>
+        <f t="shared" ref="A25:J25" si="8">A19-SUM(A20)</f>
         <v>-1.1344516361660485E-18</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-1.6859056471380579E-10</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-1.749766254963155E-7</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8.2927874266141741E-5</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.1010221458787016E-3</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.5904210952117659E-2</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9.4323501417637318E-2</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.20397769041077923</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.31207984595276128</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.3763848424155628</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
-        <f t="shared" ref="A26:J26" si="4">A20-SUM(A21)</f>
+        <f t="shared" ref="A26:J26" si="9">A20-SUM(A21)</f>
         <v>0</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
-        <f t="shared" ref="A27:J27" si="5">A21-SUM(A22)</f>
+        <f t="shared" ref="A27:J27" si="10">A21-SUM(A22)</f>
         <v>1.1345466959148336E-18</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.8089037042493868E-10</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.0756847831001704E-7</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.3428992490975908E-5</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.3495487687728246E-3</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.39932841238709E-3</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.5974317723021149E-2</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.2923984225862399E-2</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.18334887215141191</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.29919481693416161</v>
       </c>
     </row>
@@ -1594,44 +1596,44 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="1">
-        <f>A23*$B$10+A24*$B$11+A25*$B$12+$B$13*A26+$B$14*A27</f>
+      <c r="A29" s="2">
+        <f t="shared" ref="A29:J29" si="11">A23*$B$10+A24*$B$11+A25*$B$12+$B$13*A26+$B$14*A27</f>
         <v>5.6729235990717383E-19</v>
       </c>
-      <c r="B29" s="1">
-        <f>B23*$B$10+B24*$B$11+B25*$B$12+$B$13*B26+$B$14*B27</f>
+      <c r="B29" s="2">
+        <f t="shared" si="11"/>
         <v>9.2905151735172012E-11</v>
       </c>
-      <c r="C29" s="1">
-        <f>C23*$B$10+C24*$B$11+C25*$B$12+$B$13*C26+$B$14*C27</f>
+      <c r="C29" s="2">
+        <f t="shared" si="11"/>
         <v>4.6860508823589257E-7</v>
       </c>
-      <c r="D29" s="1">
-        <f>D23*$B$10+D24*$B$11+D25*$B$12+$B$13*D26+$B$14*D27</f>
+      <c r="D29" s="2">
+        <f t="shared" si="11"/>
         <v>0.10019645351304628</v>
       </c>
-      <c r="E29" s="1">
-        <f>E23*$B$10+E24*$B$11+E25*$B$12+$B$13*E26+$B$14*E27</f>
+      <c r="E29" s="2">
+        <f t="shared" si="11"/>
         <v>0.11347267906057283</v>
       </c>
-      <c r="F29" s="1">
-        <f>F23*$B$10+F24*$B$11+F25*$B$12+$B$13*F26+$B$14*F27</f>
+      <c r="F29" s="2">
+        <f t="shared" si="11"/>
         <v>0.19577204403492243</v>
       </c>
-      <c r="G29" s="1">
-        <f>G23*$B$10+G24*$B$11+G25*$B$12+$B$13*G26+$B$14*G27</f>
+      <c r="G29" s="2">
+        <f t="shared" si="11"/>
         <v>0.3096067695451723</v>
       </c>
-      <c r="H29" s="1">
-        <f>H23*$B$10+H24*$B$11+H25*$B$12+$B$13*H26+$B$14*H27</f>
+      <c r="H29" s="2">
+        <f t="shared" si="11"/>
         <v>0.40059588473934798</v>
       </c>
-      <c r="I29" s="1">
-        <f>I23*$B$10+I24*$B$11+I25*$B$12+$B$13*I26+$B$14*I27</f>
+      <c r="I29" s="2">
+        <f t="shared" si="11"/>
         <v>0.49027376059069538</v>
       </c>
-      <c r="J29" s="1">
-        <f>J23*$B$10+J24*$B$11+J25*$B$12+$B$13*J26+$B$14*J27</f>
+      <c r="J29" s="2">
+        <f t="shared" si="11"/>
         <v>0.58468152212693481</v>
       </c>
     </row>
